--- a/data/trans_orig/Q24D_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Provincia-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.844660233885925</v>
+        <v>1.866256693966507</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.505766338640402</v>
+        <v>2.544120988210965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.019593759700272</v>
+        <v>1.986277475203582</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.78895498976914</v>
+        <v>1.815352027260286</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.479339107216023</v>
+        <v>1.523346667008588</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.222077024763376</v>
+        <v>2.237525814633749</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.133782736769411</v>
+        <v>2.148397379341327</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.70843034703053</v>
+        <v>1.702373900626395</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.868443431654523</v>
+        <v>1.861433058136277</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.550359842840602</v>
+        <v>2.49984255088892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.195309522278002</v>
+        <v>2.142515181375388</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.84783284908064</v>
+        <v>1.864013922927836</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.781705971809921</v>
+        <v>2.775758003327843</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.968180525567967</v>
+        <v>4.145461572485837</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.791300284336218</v>
+        <v>2.754774040378047</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.732852130223916</v>
+        <v>2.746544033040093</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.678196358610286</v>
+        <v>2.645130720619992</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.408951066308807</v>
+        <v>3.358146892447147</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.44950389933671</v>
+        <v>3.506773381790284</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.292988887948929</v>
+        <v>2.304244513950397</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.609835202784982</v>
+        <v>2.598402538323822</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.466490042512937</v>
+        <v>3.506372893594388</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.893537934055922</v>
+        <v>2.811035249151615</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.424487678956167</v>
+        <v>2.408634922831659</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>1.656503222568268</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>2.799106570672303</v>
+        <v>2.799106570672302</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>3.478210800482509</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.157237066070618</v>
+        <v>3.027993733782112</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.476617451321495</v>
+        <v>2.46636336913387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.877966564140914</v>
+        <v>1.850133199314632</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.450759304965187</v>
+        <v>2.459314897083645</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.09531398841593</v>
+        <v>2.09149183752763</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.879239069123415</v>
+        <v>1.890620993397265</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.406934570736433</v>
+        <v>1.40649502250341</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.268653027710975</v>
+        <v>2.307196046448137</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.843866411969024</v>
+        <v>2.871654549297036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.375642022740352</v>
+        <v>2.362632899109887</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.721977250672255</v>
+        <v>1.708058789152476</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.503585159091088</v>
+        <v>2.524565069468889</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.671433982816216</v>
+        <v>5.736782898791723</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.492871379519184</v>
+        <v>3.457606078025268</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.619435228847913</v>
+        <v>2.567215920901925</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.520891000847977</v>
+        <v>4.475043049238028</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.402143779831912</v>
+        <v>3.30587566803225</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.947025034216815</v>
+        <v>3.598890253332681</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.991571996237063</v>
+        <v>1.976418223507675</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.593432921177573</v>
+        <v>3.581527204678252</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>4.416160542750542</v>
+        <v>4.429853844545357</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.286439416182383</v>
+        <v>3.238061782305842</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.249509650053254</v>
+        <v>2.214386671030165</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.785284797760734</v>
+        <v>3.807611695251076</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>1.825564650475047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.180040785370824</v>
+        <v>3.180040785370823</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1.768263602523693</v>
@@ -953,7 +953,7 @@
         <v>2.240395972668382</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>2.395278913593944</v>
+        <v>2.395278913593943</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>1.705192410896265</v>
@@ -965,7 +965,7 @@
         <v>2.061734731409014</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>2.774815816540715</v>
+        <v>2.774815816540716</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.403904044668714</v>
+        <v>1.410392175704106</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.93149070186842</v>
+        <v>1.916488480948742</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.50390771702213</v>
+        <v>1.506472424090912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.024525133216243</v>
+        <v>2.0368727441896</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.490883357527385</v>
+        <v>1.494564157619694</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.733570782262461</v>
+        <v>1.731741594352577</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.806761531140649</v>
+        <v>1.781746535671584</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.930710096022679</v>
+        <v>1.972349851082116</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.53208391989051</v>
+        <v>1.519789555346316</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.91710766225365</v>
+        <v>1.90413691246086</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.781085042150343</v>
+        <v>1.771154143630261</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.165483439930556</v>
+        <v>2.167158635547353</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.89932887674808</v>
+        <v>1.92321556539892</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.627789491715477</v>
+        <v>2.615766292468204</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.230533741228371</v>
+        <v>2.272976712388008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.244519351376317</v>
+        <v>6.511322208539221</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.220721126763944</v>
+        <v>2.281378949538317</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.289403916769428</v>
+        <v>2.270865476145119</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.01076510004418</v>
+        <v>3.146734058003305</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.03837466821304</v>
+        <v>3.139671164732368</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.966601906790895</v>
+        <v>1.933865539500113</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2.324560255424121</v>
+        <v>2.349137410633389</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.57594172080433</v>
+        <v>2.549255153254341</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>4.438628110094931</v>
+        <v>4.413350398454405</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>3.410501340868433</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>3.475482911122147</v>
+        <v>3.475482911122148</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.861270442498077</v>
+        <v>1.826529286277385</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.236346164439804</v>
+        <v>2.211187046318309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.89449859084615</v>
+        <v>2.901545947056212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.426632655571686</v>
+        <v>2.390951565531377</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.890053619831013</v>
+        <v>1.895079361663053</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.490312040884826</v>
+        <v>2.466005694816585</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.541631471301952</v>
+        <v>2.561864381764333</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.667636450946906</v>
+        <v>2.62337155720891</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.01120686096777</v>
+        <v>1.991154707689641</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.531078625881806</v>
+        <v>2.524166573461234</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.90878106093034</v>
+        <v>2.915578934626615</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.780199960856183</v>
+        <v>2.748968443401627</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.069202782669802</v>
+        <v>4.112844461181534</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.553875230501369</v>
+        <v>6.265105719901099</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.354208874460602</v>
+        <v>4.523385090831032</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.242885333645863</v>
+        <v>7.614062791167219</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.779206816177108</v>
+        <v>2.826202107784683</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.413520927665271</v>
+        <v>3.394645799493124</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>5.021608258619509</v>
+        <v>4.891560546720005</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>4.149763734909384</v>
+        <v>4.232551186782141</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.252276488273131</v>
+        <v>3.295322472361829</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4.627820541088671</v>
+        <v>4.650439650988462</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4.15565820946366</v>
+        <v>4.154240095109128</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>5.31991451568512</v>
+        <v>5.641143277636462</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>2.969000780746265</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>3.427997521552837</v>
+        <v>3.427997521552838</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>3.43879498910061</v>
@@ -1237,7 +1237,7 @@
         <v>2.860933699697085</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>2.923178854973087</v>
+        <v>2.923178854973088</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.854957054665425</v>
+        <v>2.833403342329138</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.15329253938588</v>
+        <v>2.226708384785048</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.474651647740032</v>
+        <v>2.499742651426336</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.966227948763127</v>
+        <v>1.970185067770469</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.394167211453142</v>
+        <v>2.442399153157014</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.562646458240967</v>
+        <v>2.542802010150343</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.986024866052204</v>
+        <v>1.975153552307504</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.630514763316761</v>
+        <v>2.587853247006802</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.477641116493372</v>
+        <v>2.447897436340161</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.610715865785007</v>
+        <v>2.590316251800833</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.860213274104887</v>
+        <v>1.860401472949571</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.378098996882509</v>
+        <v>6.476042799499361</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.701427311982519</v>
+        <v>4.668491542006119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.1066762626252</v>
+        <v>3.107942636180055</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.288075860474411</v>
+        <v>3.356270437199063</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.297913685148649</v>
+        <v>4.649168267030569</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.524532617533493</v>
+        <v>3.529226276285013</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.866951506319197</v>
+        <v>6.174882713122274</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.75439029299239</v>
+        <v>4.590194989587959</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4.188407923337659</v>
+        <v>3.979744251886379</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3.183209689750013</v>
+        <v>3.159482096684459</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>5.186370326560272</v>
+        <v>4.96612419372602</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>1.874078322821893</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>2.471058135559126</v>
+        <v>2.471058135559127</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>1.84863993514396</v>
@@ -1373,7 +1373,7 @@
         <v>2.22069456410168</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>2.859825700098063</v>
+        <v>2.859825700098062</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.472767676535537</v>
+        <v>1.488769796875065</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.939160071752025</v>
+        <v>1.961085735624387</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.681126654450519</v>
+        <v>1.718917640913915</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.375013328595995</v>
+        <v>2.363942623247302</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.611966888750593</v>
+        <v>1.632826043470893</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.888335242384634</v>
+        <v>1.910366115079553</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.386758917623656</v>
+        <v>1.391564814940171</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.065237039229963</v>
+        <v>2.023383990793752</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.624442450808511</v>
+        <v>1.583489914742708</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2.031927905485246</v>
+        <v>2.016427933501665</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.723019235287631</v>
+        <v>1.726695087937124</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.387316170139465</v>
+        <v>2.37944157269086</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.905059819828114</v>
+        <v>1.946756434331056</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.803573334781985</v>
+        <v>2.984931690899712</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.830791726060404</v>
+        <v>3.737420663970465</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.462402822507741</v>
+        <v>4.393308065243833</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2.846323765633645</v>
+        <v>2.902265154654639</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.689209164158291</v>
+        <v>2.800717181977689</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.502879707654968</v>
+        <v>2.473094730615702</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>3.182731889979499</v>
+        <v>3.128880957758981</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.136863237792106</v>
+        <v>2.142704222196732</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2.668344677502032</v>
+        <v>2.642683842704698</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3.106104444452173</v>
+        <v>3.104183327437527</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>3.660285974999121</v>
+        <v>3.724580731131938</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>2.654274694099227</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.846107684570988</v>
+        <v>3.846107684570987</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>1.837258556785374</v>
@@ -1509,7 +1509,7 @@
         <v>2.386510330411594</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>3.611753205674704</v>
+        <v>3.611753205674703</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.02878484628039</v>
+        <v>2.048772149912906</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.527464108337292</v>
+        <v>2.506049682059447</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.135828957097323</v>
+        <v>2.155892257888647</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.874762437195378</v>
+        <v>2.86931585901921</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.577581594431787</v>
+        <v>1.601502301258271</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.062136018337718</v>
+        <v>2.024423504806433</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.802046068919561</v>
+        <v>1.832181913545238</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.864477795795471</v>
+        <v>2.840290850588872</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.922742508930654</v>
+        <v>1.928505983818965</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2.348864665024856</v>
+        <v>2.379511945755671</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2.091354904634986</v>
+        <v>2.073388040864225</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>3.056186708666274</v>
+        <v>3.052124409861275</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.096599822821078</v>
+        <v>4.069801822151208</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.293623477089468</v>
+        <v>3.286510736442837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.316445387705868</v>
+        <v>3.431537212612924</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.622699100560635</v>
+        <v>6.719772399127908</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.117511681032741</v>
+        <v>2.146906765298239</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.633691850337374</v>
+        <v>2.60565668312927</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.501915302078715</v>
+        <v>2.517163296835257</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.107786710747534</v>
+        <v>4.162299951854854</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.254002458154376</v>
+        <v>3.011981464201043</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2.841375117711727</v>
+        <v>2.878940726653531</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.791268687299411</v>
+        <v>2.820139305284615</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>4.965140327401551</v>
+        <v>4.980687918138288</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>2.159560710873089</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.066869608739805</v>
+        <v>2.066869608739804</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>2.318881992804851</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.257326070626289</v>
+        <v>2.266301219557584</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.862470378647113</v>
+        <v>1.894646348705978</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.932440689717401</v>
+        <v>1.953070579728253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.893750466083866</v>
+        <v>1.881847500174975</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1.920032853673302</v>
+        <v>1.928271104515001</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1.795544303154085</v>
+        <v>1.787225027017722</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.164503865017318</v>
+        <v>2.186777050840452</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>1.962078846090648</v>
+        <v>1.984210578592449</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>2.249416064975913</v>
+        <v>2.277032898000845</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1.885720409736398</v>
+        <v>1.894454395835455</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2.096952296858896</v>
+        <v>2.087161571701852</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.982022671582586</v>
+        <v>2.000380949060597</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.16004563694746</v>
+        <v>4.21149913040076</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.387029693423719</v>
+        <v>2.42202968323007</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.387237225489758</v>
+        <v>2.399726876138042</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.287681367117698</v>
+        <v>2.290555713657437</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>2.882300032360242</v>
+        <v>2.972289799150505</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2.387714458571173</v>
+        <v>2.386539597933107</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.762961008795507</v>
+        <v>2.754586376308512</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>3.113405127596575</v>
+        <v>3.114747902000965</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>3.667421789441937</v>
+        <v>3.525828478702202</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2.272700679377295</v>
+        <v>2.29060199004845</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2.465549508813212</v>
+        <v>2.463080320436438</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>2.548895959480299</v>
+        <v>2.557331063882629</v>
       </c>
     </row>
     <row r="28">
@@ -1769,7 +1769,7 @@
         <v>2.500145783127896</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>2.806916092167182</v>
+        <v>2.806916092167181</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>2.546709851546261</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.488990885884346</v>
+        <v>2.474705189447718</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.472324490230836</v>
+        <v>2.504968474563871</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.378023941633734</v>
+        <v>2.361133954966592</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.724245609167471</v>
+        <v>2.705481736684597</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.028291952664333</v>
+        <v>2.025559129020244</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.269840658586899</v>
+        <v>2.287350491767571</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.287587348311288</v>
+        <v>2.306211710894902</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.563777541146889</v>
+        <v>2.560396297832601</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.340035054628288</v>
+        <v>2.331082102231687</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2.442452027462509</v>
+        <v>2.439552416660645</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2.385793830055048</v>
+        <v>2.400800573515446</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>2.719563235333752</v>
+        <v>2.735659164194805</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.254563016987776</v>
+        <v>3.22382721821087</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.992356846268935</v>
+        <v>2.997300131215957</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.806083286967731</v>
+        <v>2.786396878604636</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.03560645571716</v>
+        <v>3.955030086507339</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.380467173248343</v>
+        <v>2.390295121563728</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.627221055260619</v>
+        <v>2.653088081225899</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.766482135751191</v>
+        <v>2.788921881670293</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.162402832368852</v>
+        <v>3.115872021484142</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.83953389340313</v>
+        <v>2.799608409582469</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2.761946355245786</v>
+        <v>2.750439870852743</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2.687587016998183</v>
+        <v>2.707375219885739</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>3.431339753346834</v>
+        <v>3.442373374849865</v>
       </c>
     </row>
     <row r="31">
